--- a/109下/109下 Excel/Excel 第三次上課/上課/Ch06-03.xlsx
+++ b/109下/109下 Excel/Excel 第三次上課/上課/Ch06-03.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAN\Downloads\00 國立空中大學\109下\109下 Excel\Excel 第三次上課\上課\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAN\Documents\GitHub\NationalOpenUniversity\109下\109下 Excel\Excel 第三次上課\上課\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAD93DD-E16D-4E06-9FAC-27D315A6BBD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465460B0-9CD2-48DC-9AF9-514462E7C68D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="1104" windowWidth="19404" windowHeight="13152" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="預算底稿" sheetId="1" r:id="rId1"/>
@@ -639,9 +639,6 @@
     <t>葉恩慈</t>
   </si>
   <si>
-    <t>HiNet ADSL租費</t>
-  </si>
-  <si>
     <t>名片製作</t>
   </si>
   <si>
@@ -928,6 +925,9 @@
   <si>
     <t>2016年  產品部個員別預算總表</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳真紙</t>
   </si>
 </sst>
 </file>
@@ -1969,8 +1969,8 @@
   </sheetPr>
   <dimension ref="A1:R200"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A164" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D216" sqref="D216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
@@ -1987,10 +1987,10 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="F1" s="81" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="82" t="s">
         <v>176</v>
-      </c>
-      <c r="G1" s="82" t="s">
-        <v>177</v>
       </c>
       <c r="H1" s="82" t="s">
         <v>78</v>
@@ -2037,11 +2037,11 @@
         <v>2580590</v>
       </c>
       <c r="G2" s="83">
-        <f t="shared" ref="G2:R2" si="0">SUBTOTAL(9, G5:G200)</f>
+        <f>SUBTOTAL(9,G5:G200)</f>
         <v>791879</v>
       </c>
       <c r="H2" s="83">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G2:R2" si="0">SUBTOTAL(9, H5:H200)</f>
         <v>158201</v>
       </c>
       <c r="I2" s="83">
@@ -2107,22 +2107,22 @@
     </row>
     <row r="4" spans="1:18" s="40" customFormat="1" ht="33.6" customHeight="1">
       <c r="A4" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="C4" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="D4" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="E4" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="F4" s="45" t="s">
         <v>182</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>183</v>
       </c>
       <c r="G4" s="47">
         <v>201601</v>
@@ -2166,14 +2166,14 @@
         <v>119</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>152</v>
+        <v>226</v>
       </c>
       <c r="C5" s="49" t="str">
         <f>VLOOKUP(B5,專案說明!$B$2:$C$30,2,FALSE)</f>
-        <v>P-01</v>
+        <v>P-04</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E5" s="50">
         <f>VLOOKUP($D5,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -2225,14 +2225,14 @@
         <v>119</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="49" t="str">
         <f>VLOOKUP(B6,專案說明!$B$2:$C$30,2,FALSE)</f>
         <v>P-02</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E6" s="50">
         <f>VLOOKUP($D6,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -2262,14 +2262,14 @@
         <v>119</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C7" s="49" t="str">
         <f>VLOOKUP(B7,專案說明!$B$2:$C$30,2,FALSE)</f>
         <v>P-03</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E7" s="50">
         <f>VLOOKUP($D7,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -2299,14 +2299,14 @@
         <v>119</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C8" s="49" t="str">
         <f>VLOOKUP(B8,專案說明!$B$2:$C$30,2,FALSE)</f>
         <v>P-04</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E8" s="50">
         <f>VLOOKUP($D8,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -2336,14 +2336,14 @@
         <v>119</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C9" s="49" t="str">
         <f>VLOOKUP(B9,專案說明!$B$2:$C$30,2,FALSE)</f>
         <v>P-05</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E9" s="50">
         <f>VLOOKUP($D9,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -2373,14 +2373,14 @@
         <v>119</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C10" s="49" t="str">
         <f>VLOOKUP(B10,專案說明!$B$2:$C$30,2,FALSE)</f>
         <v>P-06</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E10" s="50">
         <f>VLOOKUP($D10,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -2410,14 +2410,14 @@
         <v>119</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C11" s="49" t="str">
         <f>VLOOKUP(B11,專案說明!$B$2:$C$30,2,FALSE)</f>
         <v>P-06</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E11" s="50">
         <f>VLOOKUP($D11,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -2469,14 +2469,14 @@
         <v>119</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C12" s="49" t="str">
         <f>VLOOKUP(B12,專案說明!$B$2:$C$30,2,FALSE)</f>
         <v>P-07</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E12" s="50">
         <f>VLOOKUP($D12,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -2528,7 +2528,7 @@
         <v>119</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C13" s="49" t="str">
         <f>VLOOKUP(B13,專案說明!$B$2:$C$30,2,FALSE)</f>
@@ -2587,14 +2587,14 @@
         <v>119</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C14" s="49" t="str">
         <f>VLOOKUP(B14,專案說明!$B$2:$C$30,2,FALSE)</f>
         <v>P-09</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E14" s="50">
         <f>VLOOKUP($D14,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -2624,14 +2624,14 @@
         <v>119</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C15" s="49" t="str">
         <f>VLOOKUP(B15,專案說明!$B$2:$C$30,2,FALSE)</f>
         <v>P-10</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E15" s="50">
         <f>VLOOKUP($D15,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -2661,14 +2661,14 @@
         <v>119</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C16" s="49" t="str">
         <f>VLOOKUP(B16,專案說明!$B$2:$C$30,2,FALSE)</f>
         <v>P-11</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E16" s="50">
         <f>VLOOKUP($D16,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -2698,14 +2698,14 @@
         <v>119</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C17" s="49" t="str">
         <f>VLOOKUP(B17,專案說明!$B$2:$C$30,2,FALSE)</f>
         <v>P-12</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E17" s="50">
         <f>VLOOKUP($D17,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -2757,14 +2757,14 @@
         <v>119</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C18" s="49" t="str">
         <f>VLOOKUP(B18,專案說明!$B$2:$C$30,2,FALSE)</f>
         <v>P-13</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E18" s="50">
         <f>VLOOKUP($D18,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -2794,14 +2794,14 @@
         <v>119</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C19" s="49" t="str">
         <f>VLOOKUP(B19,專案說明!$B$2:$C$30,2,FALSE)</f>
         <v>P-14</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E19" s="50">
         <f>VLOOKUP($D19,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -2831,14 +2831,14 @@
         <v>119</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C20" s="49" t="str">
         <f>VLOOKUP(B20,專案說明!$B$2:$C$30,2,FALSE)</f>
         <v>P-15</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E20" s="50">
         <f>VLOOKUP($D20,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -2890,7 +2890,7 @@
         <v>119</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="49" t="str">
         <f>VLOOKUP(B21,專案說明!$B$2:$C$30,2,FALSE)</f>
@@ -2927,14 +2927,14 @@
         <v>119</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C22" s="49" t="str">
         <f>VLOOKUP(B22,專案說明!$B$2:$C$30,2,FALSE)</f>
         <v>P-16</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E22" s="50">
         <f>VLOOKUP($D22,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -2964,14 +2964,14 @@
         <v>119</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C23" s="49" t="str">
         <f>VLOOKUP(B23,專案說明!$B$2:$C$30,2,FALSE)</f>
         <v>P-17</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E23" s="50">
         <f>VLOOKUP($D23,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -3023,14 +3023,14 @@
         <v>150</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C24" s="49" t="str">
         <f>VLOOKUP(B24,專案說明!$B$2:$C$30,2,FALSE)</f>
         <v>P-17</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E24" s="50">
         <f>VLOOKUP($D24,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -3207,7 +3207,7 @@
         <v>P-18</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E27" s="50">
         <f>VLOOKUP($D27,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -3266,7 +3266,7 @@
         <v>P-18</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E28" s="50">
         <f>VLOOKUP($D28,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -3436,7 +3436,7 @@
         <v>151</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C31" s="49" t="str">
         <f>VLOOKUP(B31,專案說明!$B$2:$C$30,2,FALSE)</f>
@@ -3495,7 +3495,7 @@
         <v>111</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C32" s="49" t="str">
         <f>VLOOKUP(B32,專案說明!$B$2:$C$30,2,FALSE)</f>
@@ -3554,14 +3554,14 @@
         <v>119</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C33" s="49" t="str">
         <f>VLOOKUP(B33,專案說明!$B$2:$C$30,2,FALSE)</f>
         <v>P-20</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E33" s="50">
         <f>VLOOKUP($D33,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -3613,14 +3613,14 @@
         <v>150</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C34" s="49" t="str">
         <f>VLOOKUP(B34,專案說明!$B$2:$C$30,2,FALSE)</f>
         <v>P-20</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E34" s="50">
         <f>VLOOKUP($D34,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -3672,7 +3672,7 @@
         <v>151</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C35" s="49" t="str">
         <f>VLOOKUP(B35,專案說明!$B$2:$C$30,2,FALSE)</f>
@@ -3731,7 +3731,7 @@
         <v>111</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C36" s="49" t="str">
         <f>VLOOKUP(B36,專案說明!$B$2:$C$30,2,FALSE)</f>
@@ -3790,14 +3790,14 @@
         <v>119</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C37" s="49" t="str">
         <f>VLOOKUP(B37,專案說明!$B$2:$C$30,2,FALSE)</f>
         <v>P-21</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E37" s="50">
         <f>VLOOKUP($D37,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -3827,14 +3827,14 @@
         <v>150</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C38" s="49" t="str">
         <f>VLOOKUP(B38,專案說明!$B$2:$C$30,2,FALSE)</f>
         <v>P-21</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E38" s="50">
         <f>VLOOKUP($D38,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -3864,7 +3864,7 @@
         <v>151</v>
       </c>
       <c r="B39" s="48" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C39" s="49" t="str">
         <f>VLOOKUP(B39,專案說明!$B$2:$C$30,2,FALSE)</f>
@@ -3901,7 +3901,7 @@
         <v>111</v>
       </c>
       <c r="B40" s="48" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C40" s="49" t="str">
         <f>VLOOKUP(B40,專案說明!$B$2:$C$30,2,FALSE)</f>
@@ -3938,14 +3938,14 @@
         <v>119</v>
       </c>
       <c r="B41" s="48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C41" s="49" t="str">
         <f>VLOOKUP(B41,專案說明!$B$2:$C$30,2,FALSE)</f>
         <v>P-22</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E41" s="50">
         <f>VLOOKUP($D41,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -3975,14 +3975,14 @@
         <v>150</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C42" s="49" t="str">
         <f>VLOOKUP(B42,專案說明!$B$2:$C$30,2,FALSE)</f>
         <v>P-22</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E42" s="50">
         <f>VLOOKUP($D42,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -4012,7 +4012,7 @@
         <v>151</v>
       </c>
       <c r="B43" s="48" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C43" s="49" t="str">
         <f>VLOOKUP(B43,專案說明!$B$2:$C$30,2,FALSE)</f>
@@ -4049,7 +4049,7 @@
         <v>111</v>
       </c>
       <c r="B44" s="48" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C44" s="49" t="str">
         <f>VLOOKUP(B44,專案說明!$B$2:$C$30,2,FALSE)</f>
@@ -4086,14 +4086,14 @@
         <v>119</v>
       </c>
       <c r="B45" s="48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C45" s="49" t="str">
         <f>VLOOKUP(B45,專案說明!$B$2:$C$30,2,FALSE)</f>
         <v>P-23</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E45" s="50">
         <f>VLOOKUP($D45,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -4123,14 +4123,14 @@
         <v>150</v>
       </c>
       <c r="B46" s="48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C46" s="49" t="str">
         <f>VLOOKUP(B46,專案說明!$B$2:$C$30,2,FALSE)</f>
         <v>P-23</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E46" s="50">
         <f>VLOOKUP($D46,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -4160,7 +4160,7 @@
         <v>151</v>
       </c>
       <c r="B47" s="48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C47" s="49" t="str">
         <f>VLOOKUP(B47,專案說明!$B$2:$C$30,2,FALSE)</f>
@@ -4197,7 +4197,7 @@
         <v>111</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C48" s="49" t="str">
         <f>VLOOKUP(B48,專案說明!$B$2:$C$30,2,FALSE)</f>
@@ -4234,14 +4234,14 @@
         <v>119</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C49" s="49" t="str">
         <f>VLOOKUP(B49,專案說明!$B$2:$C$30,2,FALSE)</f>
         <v>P-24</v>
       </c>
       <c r="D49" s="48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E49" s="50">
         <f>VLOOKUP($D49,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -4271,14 +4271,14 @@
         <v>150</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C50" s="49" t="str">
         <f>VLOOKUP(B50,專案說明!$B$2:$C$30,2,FALSE)</f>
         <v>P-24</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E50" s="50">
         <f>VLOOKUP($D50,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -4308,7 +4308,7 @@
         <v>151</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C51" s="49" t="str">
         <f>VLOOKUP(B51,專案說明!$B$2:$C$30,2,FALSE)</f>
@@ -4345,7 +4345,7 @@
         <v>111</v>
       </c>
       <c r="B52" s="48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C52" s="49" t="str">
         <f>VLOOKUP(B52,專案說明!$B$2:$C$30,2,FALSE)</f>
@@ -4382,14 +4382,14 @@
         <v>119</v>
       </c>
       <c r="B53" s="48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C53" s="49" t="str">
         <f>VLOOKUP(B53,專案說明!$B$2:$C$30,2,FALSE)</f>
         <v>P-25</v>
       </c>
       <c r="D53" s="48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E53" s="50">
         <f>VLOOKUP($D53,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -4419,14 +4419,14 @@
         <v>150</v>
       </c>
       <c r="B54" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C54" s="49" t="str">
         <f>VLOOKUP(B54,專案說明!$B$2:$C$30,2,FALSE)</f>
         <v>P-25</v>
       </c>
       <c r="D54" s="48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E54" s="50">
         <f>VLOOKUP($D54,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -4456,7 +4456,7 @@
         <v>151</v>
       </c>
       <c r="B55" s="48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C55" s="49" t="str">
         <f>VLOOKUP(B55,專案說明!$B$2:$C$30,2,FALSE)</f>
@@ -4493,7 +4493,7 @@
         <v>111</v>
       </c>
       <c r="B56" s="48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C56" s="49" t="str">
         <f>VLOOKUP(B56,專案說明!$B$2:$C$30,2,FALSE)</f>
@@ -4530,7 +4530,7 @@
         <v>119</v>
       </c>
       <c r="B57" s="48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C57" s="49" t="str">
         <f>VLOOKUP(B57,專案說明!$B$2:$C$30,2,FALSE)</f>
@@ -4567,14 +4567,14 @@
         <v>150</v>
       </c>
       <c r="B58" s="48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C58" s="49" t="str">
         <f>VLOOKUP(B58,專案說明!$B$2:$C$30,2,FALSE)</f>
         <v>P-26</v>
       </c>
       <c r="D58" s="48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E58" s="50">
         <f>VLOOKUP($D58,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -4678,14 +4678,14 @@
         <v>119</v>
       </c>
       <c r="B61" s="48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C61" s="49" t="str">
         <f>VLOOKUP(B61,專案說明!$B$2:$C$30,2,FALSE)</f>
         <v>P-27</v>
       </c>
       <c r="D61" s="48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E61" s="50">
         <f>VLOOKUP($D61,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -4715,14 +4715,14 @@
         <v>150</v>
       </c>
       <c r="B62" s="56" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C62" s="57" t="str">
         <f>VLOOKUP(B62,專案說明!$B$2:$C$30,2,FALSE)</f>
         <v>P-27</v>
       </c>
       <c r="D62" s="56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E62" s="58">
         <f>VLOOKUP($D62,科目說明!$A$1:$B$48,2,FALSE)</f>
@@ -4752,7 +4752,7 @@
         <v>151</v>
       </c>
       <c r="B63" s="48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C63" s="49" t="str">
         <f>VLOOKUP(B63,專案說明!$B$2:$C$30,2,FALSE)</f>
@@ -4789,7 +4789,7 @@
         <v>111</v>
       </c>
       <c r="B64" s="48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C64" s="49" t="str">
         <f>VLOOKUP(B64,專案說明!$B$2:$C$30,2,FALSE)</f>
@@ -8787,7 +8787,7 @@
     <brk id="18" max="1048575" man="1"/>
   </colBreaks>
   <ignoredErrors>
-    <ignoredError sqref="R2 G2:Q2" formulaRange="1"/>
+    <ignoredError sqref="R2 H2:Q2" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8797,7 +8797,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
@@ -8818,17 +8818,17 @@
   <sheetData>
     <row r="1" spans="1:11" ht="25.2" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
       <c r="E1" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="12"/>
       <c r="I1" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J1" s="10"/>
       <c r="K1" s="11"/>
@@ -8886,21 +8886,30 @@
       <c r="B4" s="14">
         <v>6201000</v>
       </c>
-      <c r="C4" s="78"/>
+      <c r="C4" s="78">
+        <f>SUMIF(預算底稿!E5:E200,B4,預算底稿!F5:F200)</f>
+        <v>1976500</v>
+      </c>
       <c r="E4" s="68" t="s">
         <v>61</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="78"/>
+      <c r="G4" s="78">
+        <f>SUMIF(預算底稿!B5:B200,F4,預算底稿!F5:F200)</f>
+        <v>0</v>
+      </c>
       <c r="I4" s="72" t="s">
         <v>101</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="K4" s="78"/>
+      <c r="K4" s="78">
+        <f>SUMIF(預算底稿!A5:A200,J4,預算底稿!G5:R200)</f>
+        <v>491751</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="66" t="s">
@@ -8909,21 +8918,30 @@
       <c r="B5" s="15">
         <v>6202000</v>
       </c>
-      <c r="C5" s="78"/>
+      <c r="C5" s="78">
+        <f>SUMIF(預算底稿!E6:E201,B5,預算底稿!F6:F201)</f>
+        <v>60000</v>
+      </c>
       <c r="E5" s="68" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="78"/>
+      <c r="G5" s="78">
+        <f>SUMIF(預算底稿!B6:B201,F5,預算底稿!F6:F201)</f>
+        <v>900</v>
+      </c>
       <c r="I5" s="73" t="s">
         <v>102</v>
       </c>
       <c r="J5" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="78"/>
+      <c r="K5" s="78">
+        <f>SUMIF(預算底稿!A6:A201,J5,預算底稿!G6:R201)</f>
+        <v>103012</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="66" t="s">
@@ -8932,21 +8950,30 @@
       <c r="B6" s="15">
         <v>6203000</v>
       </c>
-      <c r="C6" s="78"/>
+      <c r="C6" s="78">
+        <f>SUMIF(預算底稿!E7:E202,B6,預算底稿!F7:F202)</f>
+        <v>15140</v>
+      </c>
       <c r="E6" s="68" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="78"/>
+      <c r="G6" s="78">
+        <f>SUMIF(預算底稿!B7:B202,F6,預算底稿!F7:F202)</f>
+        <v>12800</v>
+      </c>
       <c r="I6" s="75" t="s">
         <v>103</v>
       </c>
       <c r="J6" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="K6" s="78"/>
+      <c r="K6" s="78">
+        <f>SUMIF(預算底稿!A7:A202,J6,預算底稿!G7:R202)</f>
+        <v>94104</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="66" t="s">
@@ -8955,21 +8982,30 @@
       <c r="B7" s="15">
         <v>6204000</v>
       </c>
-      <c r="C7" s="78"/>
+      <c r="C7" s="78">
+        <f>SUMIF(預算底稿!E8:E203,B7,預算底稿!F8:F203)</f>
+        <v>0</v>
+      </c>
       <c r="E7" s="68" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="78"/>
+      <c r="G7" s="78">
+        <f>SUMIF(預算底稿!B8:B203,F7,預算底稿!F8:F203)</f>
+        <v>180</v>
+      </c>
       <c r="I7" s="79" t="s">
         <v>110</v>
       </c>
       <c r="J7" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="K7" s="78"/>
+      <c r="K7" s="78">
+        <f>SUMIF(預算底稿!A8:A203,J7,預算底稿!G8:R203)</f>
+        <v>103012</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="66" t="s">
@@ -8978,14 +9014,20 @@
       <c r="B8" s="15">
         <v>6205000</v>
       </c>
-      <c r="C8" s="78"/>
+      <c r="C8" s="78">
+        <f>SUMIF(預算底稿!E9:E204,B8,預算底稿!F9:F204)</f>
+        <v>6100</v>
+      </c>
       <c r="E8" s="68" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="78"/>
+      <c r="G8" s="78">
+        <f>SUMIF(預算底稿!B9:B204,F8,預算底稿!F9:F204)</f>
+        <v>2160</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="66" t="s">
@@ -8994,14 +9036,20 @@
       <c r="B9" s="15">
         <v>6206000</v>
       </c>
-      <c r="C9" s="78"/>
+      <c r="C9" s="78">
+        <f>SUMIF(預算底稿!E10:E205,B9,預算底稿!F10:F205)</f>
+        <v>11600</v>
+      </c>
       <c r="E9" s="68" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="G9" s="78"/>
+        <v>157</v>
+      </c>
+      <c r="G9" s="78">
+        <f>SUMIF(預算底稿!B10:B205,F9,預算底稿!F10:F205)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="66" t="s">
@@ -9010,14 +9058,20 @@
       <c r="B10" s="15">
         <v>6207000</v>
       </c>
-      <c r="C10" s="78"/>
+      <c r="C10" s="78">
+        <f>SUMIF(預算底稿!E11:E206,B10,預算底稿!F11:F206)</f>
+        <v>0</v>
+      </c>
       <c r="E10" s="68" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="78"/>
+      <c r="G10" s="78">
+        <f>SUMIF(預算底稿!B11:B206,F10,預算底稿!F11:F206)</f>
+        <v>10800</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="66" t="s">
@@ -9026,14 +9080,20 @@
       <c r="B11" s="15">
         <v>6208000</v>
       </c>
-      <c r="C11" s="78"/>
+      <c r="C11" s="78">
+        <f>SUMIF(預算底稿!E12:E207,B11,預算底稿!F12:F207)</f>
+        <v>0</v>
+      </c>
       <c r="E11" s="68" t="s">
         <v>37</v>
       </c>
       <c r="F11" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="78"/>
+      <c r="G11" s="78">
+        <f>SUMIF(預算底稿!B12:B207,F11,預算底稿!F12:F207)</f>
+        <v>3600</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="66" t="s">
@@ -9042,14 +9102,20 @@
       <c r="B12" s="15">
         <v>6209000</v>
       </c>
-      <c r="C12" s="78"/>
+      <c r="C12" s="78">
+        <f>SUMIF(預算底稿!E13:E208,B12,預算底稿!F13:F208)</f>
+        <v>0</v>
+      </c>
       <c r="E12" s="68" t="s">
         <v>38</v>
       </c>
       <c r="F12" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="78"/>
+      <c r="G12" s="78">
+        <f>SUMIF(預算底稿!B13:B208,F12,預算底稿!F13:F208)</f>
+        <v>800</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="66" t="s">
@@ -9058,14 +9124,20 @@
       <c r="B13" s="15">
         <v>6210000</v>
       </c>
-      <c r="C13" s="78"/>
+      <c r="C13" s="78">
+        <f>SUMIF(預算底稿!E14:E209,B13,預算底稿!F14:F209)</f>
+        <v>154812</v>
+      </c>
       <c r="E13" s="68" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="78"/>
+      <c r="G13" s="78">
+        <f>SUMIF(預算底稿!B14:B209,F13,預算底稿!F14:F209)</f>
+        <v>100000</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="66" t="s">
@@ -9074,14 +9146,20 @@
       <c r="B14" s="15">
         <v>6211000</v>
       </c>
-      <c r="C14" s="78"/>
+      <c r="C14" s="78">
+        <f>SUMIF(預算底稿!E15:E210,B14,預算底稿!F15:F210)</f>
+        <v>0</v>
+      </c>
       <c r="E14" s="68" t="s">
         <v>42</v>
       </c>
       <c r="F14" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="78"/>
+      <c r="G14" s="78">
+        <f>SUMIF(預算底稿!B15:B210,F14,預算底稿!F15:F210)</f>
+        <v>30000</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="66" t="s">
@@ -9090,14 +9168,20 @@
       <c r="B15" s="15">
         <v>6212000</v>
       </c>
-      <c r="C15" s="78"/>
+      <c r="C15" s="78">
+        <f>SUMIF(預算底稿!E16:E211,B15,預算底稿!F16:F211)</f>
+        <v>0</v>
+      </c>
       <c r="E15" s="68" t="s">
         <v>44</v>
       </c>
       <c r="F15" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="G15" s="78"/>
+      <c r="G15" s="78">
+        <f>SUMIF(預算底稿!B16:B211,F15,預算底稿!F16:F211)</f>
+        <v>60000</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="66" t="s">
@@ -9106,14 +9190,20 @@
       <c r="B16" s="15">
         <v>6213000</v>
       </c>
-      <c r="C16" s="78"/>
+      <c r="C16" s="78">
+        <f>SUMIF(預算底稿!E17:E212,B16,預算底稿!F17:F212)</f>
+        <v>0</v>
+      </c>
       <c r="E16" s="68" t="s">
         <v>46</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="78"/>
+      <c r="G16" s="78">
+        <f>SUMIF(預算底稿!B17:B212,F16,預算底稿!F17:F212)</f>
+        <v>4838</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="66" t="s">
@@ -9122,14 +9212,20 @@
       <c r="B17" s="15">
         <v>6215000</v>
       </c>
-      <c r="C17" s="78"/>
+      <c r="C17" s="78">
+        <f>SUMIF(預算底稿!E18:E213,B17,預算底稿!F18:F213)</f>
+        <v>0</v>
+      </c>
       <c r="E17" s="68" t="s">
         <v>47</v>
       </c>
       <c r="F17" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="78"/>
+      <c r="G17" s="78">
+        <f>SUMIF(預算底稿!B18:B213,F17,預算底稿!F18:F213)</f>
+        <v>20000</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="66" t="s">
@@ -9138,14 +9234,20 @@
       <c r="B18" s="15">
         <v>6217000</v>
       </c>
-      <c r="C18" s="78"/>
+      <c r="C18" s="78">
+        <f>SUMIF(預算底稿!E19:E214,B18,預算底稿!F19:F214)</f>
+        <v>0</v>
+      </c>
       <c r="E18" s="68" t="s">
         <v>48</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="G18" s="78"/>
+        <v>222</v>
+      </c>
+      <c r="G18" s="78">
+        <f>SUMIF(預算底稿!B19:B214,F18,預算底稿!F19:F214)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="66" t="s">
@@ -9154,14 +9256,20 @@
       <c r="B19" s="15">
         <v>6218000</v>
       </c>
-      <c r="C19" s="78"/>
+      <c r="C19" s="78">
+        <f>SUMIF(預算底稿!E20:E215,B19,預算底稿!F20:F215)</f>
+        <v>0</v>
+      </c>
       <c r="E19" s="68" t="s">
         <v>49</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="G19" s="78"/>
+      <c r="G19" s="78">
+        <f>SUMIF(預算底稿!B20:B215,F19,預算底稿!F20:F215)</f>
+        <v>40000</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="66" t="s">
@@ -9170,14 +9278,20 @@
       <c r="B20" s="15">
         <v>6219000</v>
       </c>
-      <c r="C20" s="78"/>
+      <c r="C20" s="78">
+        <f>SUMIF(預算底稿!E21:E216,B20,預算底稿!F21:F216)</f>
+        <v>4000</v>
+      </c>
       <c r="E20" s="68" t="s">
         <v>50</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="G20" s="78"/>
+      <c r="G20" s="78">
+        <f>SUMIF(預算底稿!B21:B216,F20,預算底稿!F21:F216)</f>
+        <v>1576500</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="66" t="s">
@@ -9186,14 +9300,20 @@
       <c r="B21" s="15">
         <v>6220000</v>
       </c>
-      <c r="C21" s="78"/>
+      <c r="C21" s="78">
+        <f>SUMIF(預算底稿!E22:E217,B21,預算底稿!F22:F217)</f>
+        <v>40000</v>
+      </c>
       <c r="E21" s="68" t="s">
         <v>51</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="G21" s="78"/>
+      <c r="G21" s="78">
+        <f>SUMIF(預算底稿!B22:B217,F21,預算底稿!F22:F217)</f>
+        <v>66000</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="66" t="s">
@@ -9202,14 +9322,20 @@
       <c r="B22" s="15">
         <v>6222000</v>
       </c>
-      <c r="C22" s="78"/>
+      <c r="C22" s="78">
+        <f>SUMIF(預算底稿!E23:E218,B22,預算底稿!F23:F218)</f>
+        <v>0</v>
+      </c>
       <c r="E22" s="68" t="s">
         <v>52</v>
       </c>
       <c r="F22" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="78"/>
+      <c r="G22" s="78">
+        <f>SUMIF(預算底稿!B23:B218,F22,預算底稿!F23:F218)</f>
+        <v>72828</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="66" t="s">
@@ -9218,14 +9344,20 @@
       <c r="B23" s="15">
         <v>6223000</v>
       </c>
-      <c r="C23" s="78"/>
+      <c r="C23" s="78">
+        <f>SUMIF(預算底稿!E24:E219,B23,預算底稿!F24:F219)</f>
+        <v>0</v>
+      </c>
       <c r="E23" s="68" t="s">
         <v>53</v>
       </c>
       <c r="F23" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="G23" s="78"/>
+      <c r="G23" s="78">
+        <f>SUMIF(預算底稿!B24:B219,F23,預算底稿!F24:F219)</f>
+        <v>81984</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="66" t="s">
@@ -9234,14 +9366,20 @@
       <c r="B24" s="15">
         <v>6224000</v>
       </c>
-      <c r="C24" s="78"/>
+      <c r="C24" s="78">
+        <f>SUMIF(預算底稿!E25:E220,B24,預算底稿!F25:F220)</f>
+        <v>0</v>
+      </c>
       <c r="E24" s="68" t="s">
         <v>54</v>
       </c>
       <c r="F24" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="78"/>
+      <c r="G24" s="78">
+        <f>SUMIF(預算底稿!B25:B220,F24,預算底稿!F25:F220)</f>
+        <v>2000</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="66" t="s">
@@ -9250,14 +9388,20 @@
       <c r="B25" s="15">
         <v>6226000</v>
       </c>
-      <c r="C25" s="78"/>
+      <c r="C25" s="78">
+        <f>SUMIF(預算底稿!E26:E221,B25,預算底稿!F26:F221)</f>
+        <v>0</v>
+      </c>
       <c r="E25" s="68" t="s">
         <v>55</v>
       </c>
       <c r="F25" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="G25" s="78"/>
+      <c r="G25" s="78">
+        <f>SUMIF(預算底稿!B26:B221,F25,預算底稿!F26:F221)</f>
+        <v>2000</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="66" t="s">
@@ -9266,14 +9410,20 @@
       <c r="B26" s="15">
         <v>6227000</v>
       </c>
-      <c r="C26" s="78"/>
+      <c r="C26" s="78">
+        <f>SUMIF(預算底稿!E27:E222,B26,預算底稿!F27:F222)</f>
+        <v>22500</v>
+      </c>
       <c r="E26" s="68" t="s">
         <v>56</v>
       </c>
       <c r="F26" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="G26" s="78"/>
+      <c r="G26" s="78">
+        <f>SUMIF(預算底稿!B27:B222,F26,預算底稿!F27:F222)</f>
+        <v>20000</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="66" t="s">
@@ -9282,14 +9432,20 @@
       <c r="B27" s="15">
         <v>6228000</v>
       </c>
-      <c r="C27" s="78"/>
+      <c r="C27" s="78">
+        <f>SUMIF(預算底稿!E28:E223,B27,預算底稿!F28:F223)</f>
+        <v>0</v>
+      </c>
       <c r="E27" s="68" t="s">
         <v>57</v>
       </c>
       <c r="F27" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="78"/>
+      <c r="G27" s="78">
+        <f>SUMIF(預算底稿!B28:B223,F27,預算底稿!F28:F223)</f>
+        <v>2000</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="66" t="s">
@@ -9298,14 +9454,20 @@
       <c r="B28" s="15">
         <v>6249000</v>
       </c>
-      <c r="C28" s="78"/>
+      <c r="C28" s="78">
+        <f>SUMIF(預算底稿!E29:E224,B28,預算底稿!F29:F224)</f>
+        <v>0</v>
+      </c>
       <c r="E28" s="68" t="s">
         <v>58</v>
       </c>
       <c r="F28" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="G28" s="78"/>
+      <c r="G28" s="78">
+        <f>SUMIF(預算底稿!B29:B224,F28,預算底稿!F29:F224)</f>
+        <v>2000</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="E29" s="68" t="s">
@@ -9314,7 +9476,10 @@
       <c r="F29" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="G29" s="78"/>
+      <c r="G29" s="78">
+        <f>SUMIF(預算底稿!B30:B225,F29,預算底稿!F30:F225)</f>
+        <v>22500</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="E30" s="76" t="s">
@@ -9323,7 +9488,10 @@
       <c r="F30" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="G30" s="78"/>
+      <c r="G30" s="78">
+        <f>SUMIF(預算底稿!B31:B226,F30,預算底稿!F31:F226)</f>
+        <v>376000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -9590,7 +9758,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>62</v>
@@ -9601,10 +9769,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18.600000000000001" customHeight="1">
